--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,24 +58,27 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,10 +106,25 @@
     <t>free</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>support</t>
@@ -109,85 +133,79 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>important</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -632,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -664,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -714,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8485639686684073</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5526315789473685</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -832,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.83125</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4705882352941176</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -882,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4476744186046512</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4338624338624338</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3898305084745763</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2933333333333333</v>
+        <v>0.4748062015503876</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2416107382550336</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.79375</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1388888888888889</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,49 +1232,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0938337801608579</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L15">
+        <v>107</v>
+      </c>
+      <c r="M15">
+        <v>107</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>35</v>
-      </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>338</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.78125</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01390236016812156</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>208</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
         <v>0.75</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3050</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.7692307692307693</v>
-      </c>
       <c r="L16">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,28 +1332,28 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01177024482109228</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2099</v>
+        <v>330</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>0.75</v>
@@ -1360,17 +1378,41 @@
       </c>
     </row>
     <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01942376173518938</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>0.23</v>
+      </c>
+      <c r="F18">
+        <v>0.77</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3029</v>
+      </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7441860465116279</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1382,21 +1424,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.0132013201320132</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>0.44</v>
+      </c>
+      <c r="F19">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2093</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1408,21 +1474,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.009215125516364792</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>83</v>
+      </c>
+      <c r="E20">
+        <v>0.65</v>
+      </c>
+      <c r="F20">
+        <v>0.35</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3118</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1434,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1460,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1486,12 +1576,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>0.6857142857142857</v>
@@ -1517,16 +1607,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.68</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1538,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6705882352941176</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L25">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M25">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1564,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1590,47 +1680,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.606694560669456</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L27">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="M27">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5864406779661017</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1642,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5638297872340425</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L29">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1668,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1694,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.5168539325842697</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1720,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.4761904761904762</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1751,16 +1841,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.3561643835616438</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1772,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.3076923076923077</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1798,85 +1888,189 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.02333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>879</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.01727386934673367</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>3129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K38">
+        <v>0.07467532467532467</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39">
+        <v>0.02330743618201998</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>0.01702395964691047</v>
+      </c>
+      <c r="L40">
+        <v>54</v>
+      </c>
+      <c r="M40">
+        <v>83</v>
+      </c>
+      <c r="N40">
+        <v>0.65</v>
+      </c>
+      <c r="O40">
+        <v>0.35</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41">
+        <v>0.01040189125295508</v>
+      </c>
+      <c r="L41">
         <v>22</v>
       </c>
-      <c r="K37">
-        <v>0.008970727101038715</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>44</v>
-      </c>
-      <c r="N37">
-        <v>0.43</v>
-      </c>
-      <c r="O37">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2099</v>
+      <c r="M41">
+        <v>50</v>
+      </c>
+      <c r="N41">
+        <v>0.44</v>
+      </c>
+      <c r="O41">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2093</v>
       </c>
     </row>
   </sheetData>
